--- a/InputData/elec/SYC/Start Year Capacities_HK.xlsx
+++ b/InputData/elec/SYC/Start Year Capacities_HK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-2.0.0-us-wipF\InputData\elec\SYC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="5_{96685ABE-EDB4-4654-85C2-4F3E7BAD1499}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{30FE851C-F314-4508-90F7-4121D2985053}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="5_{96685ABE-EDB4-4654-85C2-4F3E7BAD1499}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{45B73089-8A9A-48C1-A8B5-1857C85D0810}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6901,7 +6901,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6928,8 +6928,7 @@
         <v>81</v>
       </c>
       <c r="B2" s="19">
-        <f>'HKEC Assets'!D6+'HKEC Assets'!D7+'HKEC Assets'!D8+'HKEC Assets'!D9+'CLP Assets'!C5</f>
-        <v>6108</v>
+        <v>6100</v>
       </c>
       <c r="C2" s="20">
         <v>0</v>
@@ -7185,7 +7184,7 @@
       </c>
       <c r="B2" s="17">
         <f>SUM('SYC-SYEGC'!B11:B12)/SUM('SYC-SYEGC'!B2:B14)</f>
-        <v>8.4243923106482363E-2</v>
+        <v>8.4310380530711673E-2</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="5"/>
@@ -7236,6 +7235,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -7244,7 +7252,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -7478,16 +7486,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A0C1F08-977C-48E4-B723-6CB37482BE1F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B1A0E7B-613A-4F2A-A1ED-3FE6D48C5425}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -7505,7 +7512,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF26DE51-7AF6-457F-860C-26A13F92AE28}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7523,12 +7530,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A0C1F08-977C-48E4-B723-6CB37482BE1F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>